--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,59 +172,6 @@
             <charset val="129"/>
           </rPr>
           <t>입력</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>owner:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주민등록번호로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자동설정</t>
         </r>
       </text>
     </comment>
@@ -277,6 +224,59 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>자동설정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주민등록번호로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t xml:space="preserve">자동설정
 </t>
         </r>
@@ -321,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1836,7 +1836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2364,6 +2364,14 @@
   </si>
   <si>
     <t>user_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2795,7 +2803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2913,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2990,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>43</v>
@@ -2999,34 +3007,30 @@
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3034,20 +3038,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3055,20 +3061,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3076,20 +3082,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3097,20 +3103,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3118,20 +3124,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3139,20 +3145,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3160,20 +3166,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3181,20 +3187,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3202,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -3210,10 +3216,12 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="8" t="s">
-        <v>59</v>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3221,15 +3229,34 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="8" t="s">
         <v>77</v>
       </c>
     </row>

--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1836,7 +1836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2372,6 +2372,11 @@
   </si>
   <si>
     <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY
+FOREIGN KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2923,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3004,7 +3009,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>133</v>
@@ -4222,7 +4227,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4291,7 +4296,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4307,8 +4312,8 @@
       <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
+      <c r="F4" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>78</v>
@@ -4343,7 +4348,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4412,7 +4417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4428,7 +4433,9 @@
       <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>101</v>
       </c>
@@ -4461,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="5.interest_er" sheetId="11" r:id="rId6"/>
     <sheet name="6.interest_ee" sheetId="12" r:id="rId7"/>
     <sheet name="7.application" sheetId="13" r:id="rId8"/>
+    <sheet name="8.zipcode" sheetId="14" r:id="rId9"/>
+    <sheet name="9.selected_skill" sheetId="15" r:id="rId10"/>
+    <sheet name="10.skill" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -321,7 +324,136 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+zipcode</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우편번호와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시퀀스번호</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1835,8 +1967,161 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>owner</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기술코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> s_01~s_08
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기술코드에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대응되는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기술명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Java, JSP/Servlet, Spring, Oracle, HTML, CSS, Linux, JS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="161">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1975,10 +2260,6 @@
   </si>
   <si>
     <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2377,6 +2658,114 @@
   <si>
     <t>PRIMARY KEY
 FOREIGN KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity : skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity : selected_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity : zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sido</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gugun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bunji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소시퀀스번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2806,22 +3195,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2842,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
@@ -2912,6 +3301,39 @@
       </c>
       <c r="C9" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2924,12 +3346,215 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2943,7 +3568,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2983,19 +3608,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3003,16 +3628,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3025,17 +3650,17 @@
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3046,19 +3671,19 @@
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3069,17 +3694,17 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3090,17 +3715,17 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3111,17 +3736,17 @@
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3129,20 +3754,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3150,20 +3777,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3171,20 +3798,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3192,20 +3819,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3213,20 +3840,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3234,18 +3861,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="8" t="s">
-        <v>59</v>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3253,16 +3882,35 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3926,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3292,7 +3940,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3329,22 +3977,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3352,20 +4000,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3373,20 +4021,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3394,20 +4042,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3415,20 +4063,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3436,10 +4084,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -3447,7 +4095,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3455,10 +4103,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
         <v>90</v>
@@ -3466,7 +4114,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3474,16 +4122,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3491,27 +4139,27 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3">
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3542,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="3">
         <v>20</v>
@@ -3574,7 +4222,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3611,22 +4259,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3634,20 +4282,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3655,20 +4303,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
         <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3676,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3">
         <v>90</v>
@@ -3687,7 +4335,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3695,10 +4343,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3">
         <v>90</v>
@@ -3706,7 +4354,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3714,10 +4362,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>90</v>
@@ -3725,7 +4373,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3733,18 +4381,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3752,20 +4400,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3773,20 +4421,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3">
         <v>4000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3794,16 +4442,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3811,27 +4459,27 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3">
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3862,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="3">
         <v>20</v>
@@ -3877,10 +4525,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3894,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3931,22 +4579,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3954,20 +4602,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3975,20 +4623,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3996,20 +4644,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4017,20 +4665,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4038,20 +4686,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4059,20 +4707,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4080,10 +4728,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -4091,7 +4739,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4099,20 +4747,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3">
         <v>4000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4120,20 +4768,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>115</v>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4141,77 +4785,60 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="4" t="s">
-        <v>116</v>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C20" s="3">
         <v>999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3">
         <v>20</v>
       </c>
     </row>
@@ -4241,7 +4868,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4278,22 +4905,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33">
@@ -4301,22 +4928,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4324,16 +4951,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4362,7 +4989,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4399,22 +5026,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33">
@@ -4422,22 +5049,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4445,16 +5072,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4468,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4482,7 +5109,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4519,22 +5146,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4542,22 +5169,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4565,22 +5192,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4588,16 +5215,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4605,25 +5232,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4654,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3">
         <v>20</v>
@@ -4666,4 +5293,180 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -571,6 +571,70 @@
             <charset val="129"/>
           </rPr>
           <t>질문</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'E' - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">일반사용자
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'R' - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기업</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
         </r>
       </text>
     </comment>
@@ -3553,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -3618,7 +3618,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -964,26 +964,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>함수로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ee_num </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">설정
+          <t>함수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ee_code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> insert </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">추가
 </t>
         </r>
         <r>
@@ -993,65 +1031,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시퀀스는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>함수에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-ee_000000</t>
+          <t>ee_000000</t>
         </r>
       </text>
     </comment>
@@ -1311,26 +1291,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>함수로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> co_num </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">설정
+          <t>함수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> co_code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> insert </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">추가
 </t>
         </r>
         <r>
@@ -1340,65 +1358,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시퀀스는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>함수에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-co_000000</t>
+          <t>co_000000</t>
         </r>
       </text>
     </comment>
@@ -1562,46 +1522,45 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>함수로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> er_num </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">설정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시퀀스는</t>
+          <t>함수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> er_code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> insert </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
         </r>
         <r>
           <rPr>
@@ -1620,35 +1579,16 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>함수에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용됨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 er_000000</t>
         </r>
       </text>
@@ -1888,6 +1828,107 @@
     <author>owner</author>
   </authors>
   <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> app_code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> insert </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">추가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>app_000000</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G6" authorId="0">
       <text>
         <r>
@@ -3618,7 +3659,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5160,7 +5201,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\repositories\1949\02.설계\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22572" windowHeight="6216" tabRatio="862" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -638,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -861,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -934,7 +939,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1266,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1362,7 +1367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1458,7 +1463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1490,9 +1495,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>owner</author>
+    <author>YOUNG</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1599,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G6" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YOUNG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'N' - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">신입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'C' - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경력</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1687,7 +1747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1781,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1854,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1828,7 +1888,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1929,7 +1989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1953,7 +2013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2078,7 +2138,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2877,8 +2937,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3012,6 +3072,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3058,7 +3126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3090,9 +3158,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3124,6 +3193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3299,28 +3369,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" customHeight="1">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3331,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3342,7 +3412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3353,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3364,7 +3434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3375,7 +3445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3386,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3397,7 +3467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3408,7 +3478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3419,7 +3489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3430,7 +3500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3452,21 +3522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>142</v>
       </c>
@@ -3477,7 +3547,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3500,7 +3570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33">
+    <row r="3" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3523,7 +3593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33">
+    <row r="4" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3553,22 +3623,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -3579,7 +3649,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3625,7 +3695,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3655,23 +3725,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>129</v>
       </c>
@@ -3682,7 +3752,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3705,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3728,7 +3798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3747,7 +3817,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3768,7 +3838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3791,7 +3861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3812,7 +3882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3833,7 +3903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3854,7 +3924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3877,7 +3947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3898,7 +3968,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3919,7 +3989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3940,7 +4010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3961,7 +4031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3982,7 +4052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4001,7 +4071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4027,23 +4097,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -4054,7 +4124,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4077,7 +4147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4100,7 +4170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4121,7 +4191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4142,7 +4212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4163,7 +4233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4184,7 +4254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4203,7 +4273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4222,7 +4292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4239,7 +4309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4262,12 +4332,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -4309,23 +4379,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -4336,7 +4406,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4359,7 +4429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4382,7 +4452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4403,7 +4473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4424,7 +4494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4443,7 +4513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4462,7 +4532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4481,7 +4551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4500,7 +4570,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4521,7 +4591,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4542,7 +4612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4559,7 +4629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4582,12 +4652,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4604,7 +4674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>1</v>
       </c>
@@ -4629,23 +4699,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
@@ -4656,7 +4726,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4679,7 +4749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4702,7 +4772,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4723,7 +4793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4744,7 +4814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4765,7 +4835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4786,7 +4856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4807,7 +4877,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4828,7 +4898,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4847,7 +4917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4868,7 +4938,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4885,7 +4955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4908,12 +4978,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
@@ -4930,7 +5000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -4950,28 +5020,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
@@ -4982,7 +5053,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5005,7 +5076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33">
+    <row r="3" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5028,7 +5099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33">
+    <row r="4" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5051,7 +5122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5076,23 +5147,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
@@ -5103,7 +5174,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5126,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33">
+    <row r="3" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5149,7 +5220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33">
+    <row r="4" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5172,7 +5243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5197,22 +5268,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -5223,7 +5294,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5246,7 +5317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5269,7 +5340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5292,7 +5363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5315,7 +5386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5332,7 +5403,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5353,12 +5424,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5375,7 +5446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -5401,24 +5472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>143</v>
       </c>
@@ -5429,7 +5500,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5452,7 +5523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5475,7 +5546,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5494,7 +5565,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5513,7 +5584,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5532,7 +5603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5551,7 +5622,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>

--- a/02.설계/테이블설계서.xlsx
+++ b/02.설계/테이블설계서.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\repositories\1949\02.설계\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22572" windowHeight="6216" tabRatio="862" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,6 +59,49 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>암호화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(SHA-1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>프로시저로</t>
         </r>
         <r>
@@ -179,11 +217,21 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>입력</t>
+          <t>입력
+암호화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(SHA-1)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -866,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +987,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1314,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1439,7 +1487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1495,10 +1543,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>owner</author>
-    <author>YOUNG</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1599,7 +1646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1656,47 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>YOUNG:</t>
+          <t>owner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">고용형태
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'C' - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정규직</t>
         </r>
         <r>
           <rPr>
@@ -1629,125 +1716,31 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">신입
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">'C' - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경력</t>
+          <t>비정규직</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'F' - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리랜서</t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>owner:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">고용형태
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">'C' - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정규직</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-'N' - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>비정규직</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-'F' - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>프리랜서</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1781,7 +1774,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1854,7 +1847,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1888,7 +1881,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1989,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2013,7 +2006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2138,7 +2131,7 @@
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2937,8 +2930,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3072,14 +3065,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3126,7 +3111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3158,10 +3143,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3193,7 +3177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3369,28 +3352,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3401,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3412,7 +3395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3423,7 +3406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3434,7 +3417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3445,7 +3428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3456,7 +3439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3467,7 +3450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3478,7 +3461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3489,7 +3472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3500,7 +3483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3522,21 +3505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>142</v>
       </c>
@@ -3547,7 +3530,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="33">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3593,7 +3576,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3623,22 +3606,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -3649,7 +3632,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3672,7 +3655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3695,7 +3678,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3725,23 +3708,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>129</v>
       </c>
@@ -3752,7 +3735,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3775,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3798,7 +3781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3809,7 +3792,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="3">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>132</v>
@@ -3817,7 +3800,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3838,7 +3821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3849,7 +3832,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="3">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
@@ -3861,7 +3844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3882,7 +3865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3903,7 +3886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3924,7 +3907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3947,7 +3930,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3968,7 +3951,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3989,7 +3972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4010,7 +3993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4031,7 +4014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4052,7 +4035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4071,7 +4054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4097,23 +4080,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -4124,7 +4107,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4147,7 +4130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4170,7 +4153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4191,7 +4174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4212,7 +4195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4233,7 +4216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4254,7 +4237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4273,7 +4256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4292,7 +4275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4309,7 +4292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4332,12 +4315,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4354,7 +4337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -4379,23 +4362,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -4406,7 +4389,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4429,7 +4412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4452,7 +4435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4473,7 +4456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4494,7 +4477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4513,7 +4496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4532,7 +4515,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4551,7 +4534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4570,7 +4553,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4581,7 +4564,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>45</v>
@@ -4591,7 +4574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4612,7 +4595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4629,7 +4612,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4652,12 +4635,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +4657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <v>1</v>
       </c>
@@ -4699,23 +4682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
@@ -4726,7 +4709,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4772,7 +4755,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4793,7 +4776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4814,7 +4797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4835,7 +4818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4856,7 +4839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4877,7 +4860,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4898,7 +4881,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4917,7 +4900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4938,7 +4921,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4955,7 +4938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4978,12 +4961,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
@@ -5000,7 +4983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -5020,29 +5003,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
@@ -5053,7 +5035,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="33">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5099,7 +5081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5122,7 +5104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5147,23 +5129,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
@@ -5174,7 +5156,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="33">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5220,7 +5202,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5243,7 +5225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5268,22 +5250,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -5294,7 +5276,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5340,7 +5322,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5363,7 +5345,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5386,7 +5368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5403,7 +5385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5424,12 +5406,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -5446,7 +5428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -5472,24 +5454,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>143</v>
       </c>
@@ -5500,7 +5482,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5546,7 +5528,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5565,7 +5547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5584,7 +5566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5603,7 +5585,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5622,7 +5604,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
